--- a/evaluation/results/isolation_forest/augmented/none_1/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_1/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C2">
-        <v>0.253968253968254</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="D2">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.3516483516483517</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="F2">
-        <v>0.4571428571428571</v>
+        <v>0.239463601532567</v>
       </c>
       <c r="G2">
-        <v>0.54521625163827</v>
+        <v>0.5855855855855856</v>
       </c>
       <c r="H2">
-        <v>0.7417067950775816</v>
+        <v>0.7602327447833066</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="K2">
-        <v>487</v>
+        <v>149</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9759519038076152</v>
+        <v>0.9802631578947368</v>
       </c>
       <c r="C2">
-        <v>0.9119850187265918</v>
+        <v>0.2790262172284644</v>
       </c>
       <c r="D2">
-        <v>0.9428848015488868</v>
+        <v>0.434402332361516</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.253968253968254</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.3516483516483517</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="C4">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D4">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="E4">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6149600788879346</v>
+        <v>0.5206193838254172</v>
       </c>
       <c r="C5">
-        <v>0.7417067950775815</v>
+        <v>0.5859416800428037</v>
       </c>
       <c r="D5">
-        <v>0.6472665765986192</v>
+        <v>0.2742787917515342</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9399811881572555</v>
+        <v>0.9344623547846268</v>
       </c>
       <c r="C6">
-        <v>0.895017793594306</v>
+        <v>0.3096085409252669</v>
       </c>
       <c r="D6">
-        <v>0.9134281812691448</v>
+        <v>0.4184469617669271</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
